--- a/report_ca_nhan/OUTSIDE/NV-20 CTV Ngoài 7-2024.xlsx
+++ b/report_ca_nhan/OUTSIDE/NV-20 CTV Ngoài 7-2024.xlsx
@@ -827,7 +827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,7 +1022,7 @@
         <v>30000000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000000</v>
+        <v>30000000</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -1345,59 +1345,154 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>158</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>07-19-2024</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-196</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>lê hoàng phúc</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v/>
+      </c>
+      <c r="N6" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v/>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>900000</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>18500000</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>67500000</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>67500000</v>
-      </c>
-      <c r="O6" t="n">
-        <v>51500000</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>97500000</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>97500000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>90500000</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2700000</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/report_ca_nhan/OUTSIDE/NV-20 CTV Ngoài 7-2024.xlsx
+++ b/report_ca_nhan/OUTSIDE/NV-20 CTV Ngoài 7-2024.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,34 +785,92 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>572</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07-20-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Huỳnh Thị Như Huỳnh</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>3500000</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>3700000</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7200000</v>
-      </c>
-      <c r="L7" t="n">
-        <v>6900000</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>5200000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9200000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8900000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>0</v>
       </c>
     </row>

--- a/report_ca_nhan/OUTSIDE/NV-20 CTV Ngoài 7-2024.xlsx
+++ b/report_ca_nhan/OUTSIDE/NV-20 CTV Ngoài 7-2024.xlsx
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-20000</v>
       </c>
     </row>
     <row r="3">
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-8000</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>-20000</v>
       </c>
     </row>
     <row r="6">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-20000</v>
       </c>
     </row>
     <row r="7">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-30000</v>
       </c>
     </row>
     <row r="8">
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-98000</v>
       </c>
     </row>
   </sheetData>
